--- a/Unidades/Unidad_8/end_2_end.xlsx
+++ b/Unidades/Unidad_8/end_2_end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanpina/Clases_2023_03/SoftwareII_2023_03_Ucaldas/Unidades/Unidad_8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0460D2B-D54D-E446-8CB3-B009C0B049C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7CBEFE-13FE-ED46-B5F9-2A2F47A1E0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37620" yWindow="1300" windowWidth="31340" windowHeight="18960" xr2:uid="{64AC658A-431B-3343-BC8D-CD47A4857F83}"/>
+    <workbookView xWindow="37620" yWindow="1300" windowWidth="31340" windowHeight="18960" activeTab="2" xr2:uid="{64AC658A-431B-3343-BC8D-CD47A4857F83}"/>
   </bookViews>
   <sheets>
     <sheet name="RF_RNF" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -691,15 +691,8 @@
     <t>Flujo alterno:</t>
   </si>
   <si>
-    <t>Uuario ingresa a la sección de login</t>
-  </si>
-  <si>
     <t>1. Usuario ingresa credenciales. 
 2. Sistema verifica y otorga/deniega acceso.</t>
-  </si>
-  <si>
-    <t>1a. Usuario no registrado: Sistema proporciona formulario de registro.
-1b. Usuario olvida contraseña: opción para restablecerla.</t>
   </si>
   <si>
     <t>Visualizar Disponibilidad</t>
@@ -807,6 +800,32 @@
   <si>
     <t>2a. Empleado marca la mesa como no disponible por un período específico.
 Sistema bloquea la mesa para ese período.</t>
+  </si>
+  <si>
+    <t>Usuario ingresa a la sección de login</t>
+  </si>
+  <si>
+    <t>1a. Usuario no registrado: Sistema proporciona formulario de registro (Se llama al caso de uso registrar usuario).
+1b. Usuario olvida contraseña: opción para restablecerla.</t>
+  </si>
+  <si>
+    <t>Registrar Usuario</t>
+  </si>
+  <si>
+    <t>Se crea un usuario para la plataforma</t>
+  </si>
+  <si>
+    <t>Usuario con acceso denegado</t>
+  </si>
+  <si>
+    <t>Usuario agregado a la plataforma</t>
+  </si>
+  <si>
+    <t>1. Usuario ingresa información básica. 
+2. Sistema verifica y guarda información en base de datos para permitir acceso.</t>
+  </si>
+  <si>
+    <t>1a. Error en correo o contraseña. Se debe mostrar una alerta al usuario.</t>
   </si>
 </sst>
 </file>
@@ -888,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -913,6 +932,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,23 +1007,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>785000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>137300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>187240</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9792F2A-4E63-55DB-047B-2EAB7CFA211D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7431A410-A2BB-5A8F-DA06-3251C05DABAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,7 +1045,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9040000" y="2372500"/>
+          <a:off x="9652000" y="2921000"/>
           <a:ext cx="7772400" cy="5536340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1335,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219DFEEA-FD41-1A4F-8E4A-B1DBA5A29B53}">
   <dimension ref="C5:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1614,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A201691A-8EF6-7C42-90C3-4D594B864AA4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1627,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B446EE62-BA7F-954D-B4EA-FF68C06AFF12}">
-  <dimension ref="C4:F54"/>
+  <dimension ref="C4:F79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView showGridLines="0" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1647,7 +1669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="46" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:6" ht="31" x14ac:dyDescent="0.2">
       <c r="C5" s="8" t="s">
         <v>58</v>
       </c>
@@ -1671,8 +1693,8 @@
       <c r="C7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>67</v>
+      <c r="D7" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -1692,17 +1714,17 @@
         <v>65</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="3:6" ht="61" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:6" ht="76" x14ac:dyDescent="0.2">
       <c r="C10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>69</v>
+      <c r="D10" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -1712,15 +1734,15 @@
         <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="46" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>71</v>
+      <c r="D13" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.2">
@@ -1728,263 +1750,319 @@
         <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" ht="31" x14ac:dyDescent="0.2">
+      <c r="D15" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>74</v>
+      <c r="D16" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="46" x14ac:dyDescent="0.2">
       <c r="C17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="61" x14ac:dyDescent="0.2">
+      <c r="D17" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="31" x14ac:dyDescent="0.2">
       <c r="C18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="C21" s="5" t="s">
+      <c r="D18" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C37" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" ht="31" x14ac:dyDescent="0.2">
-      <c r="C22" s="8" t="s">
+      <c r="D37" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" ht="46" x14ac:dyDescent="0.2">
+      <c r="C38" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="8" t="s">
+      <c r="D38" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" ht="31" x14ac:dyDescent="0.2">
-      <c r="C24" s="8" t="s">
+      <c r="D39" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="8" t="s">
+      <c r="D40" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" ht="31" x14ac:dyDescent="0.2">
+      <c r="C41" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" ht="61" x14ac:dyDescent="0.2">
-      <c r="C26" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" ht="61" x14ac:dyDescent="0.2">
-      <c r="C27" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="C30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" ht="46" x14ac:dyDescent="0.2">
-      <c r="C31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" ht="61" x14ac:dyDescent="0.2">
-      <c r="C35" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" ht="61" x14ac:dyDescent="0.2">
-      <c r="C36" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="C39" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" ht="31" x14ac:dyDescent="0.2">
-      <c r="C40" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C41" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:4" ht="46" x14ac:dyDescent="0.2">
       <c r="C42" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" ht="61" x14ac:dyDescent="0.2">
+      <c r="C43" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" ht="31" x14ac:dyDescent="0.2">
+      <c r="C47" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C48" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" ht="31" x14ac:dyDescent="0.2">
+      <c r="C49" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C43" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" ht="46" x14ac:dyDescent="0.2">
-      <c r="C44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" ht="61" x14ac:dyDescent="0.2">
-      <c r="C45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="C48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" ht="46" x14ac:dyDescent="0.2">
-      <c r="C49" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" ht="61" x14ac:dyDescent="0.2">
+      <c r="C51" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" ht="61" x14ac:dyDescent="0.2">
+      <c r="C52" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" ht="46" x14ac:dyDescent="0.2">
+      <c r="C56" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C57" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D57" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C59" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="8" t="s">
+    <row r="60" spans="3:4" ht="61" x14ac:dyDescent="0.2">
+      <c r="C60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" ht="61" x14ac:dyDescent="0.2">
+      <c r="C61" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C64" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" ht="31" x14ac:dyDescent="0.2">
+      <c r="C65" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="8" t="s">
+      <c r="D67" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C68" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" ht="61" x14ac:dyDescent="0.2">
-      <c r="C53" s="8" t="s">
+      <c r="D68" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" ht="46" x14ac:dyDescent="0.2">
+      <c r="C69" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" ht="46" x14ac:dyDescent="0.2">
-      <c r="C54" s="8" t="s">
+      <c r="D69" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" ht="61" x14ac:dyDescent="0.2">
+      <c r="C70" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>100</v>
+      <c r="D70" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C73" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" ht="46" x14ac:dyDescent="0.2">
+      <c r="C74" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C75" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C76" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C77" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" ht="61" x14ac:dyDescent="0.2">
+      <c r="C78" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" ht="46" x14ac:dyDescent="0.2">
+      <c r="C79" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
